--- a/data/trans_orig/P74B2S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAE8C24A-BA0C-435B-99C9-212903D0161E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7126CA-545B-4452-AFFB-64B26674ABAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{222E81DA-3463-48DA-849C-911F017AA7CF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F4B37C5-78CD-436D-9EF2-5FE4C9011A45}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>14,94%</t>
   </si>
   <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -104,16 +104,16 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>5,09%</t>
+    <t>5,25%</t>
   </si>
   <si>
     <t>13,29%</t>
@@ -122,10 +122,10 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>Viudedad</t>
@@ -137,7 +137,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,51%</t>
+    <t>10,15%</t>
   </si>
   <si>
     <t>0%</t>
@@ -149,7 +149,7 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,99%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>Jubilacion</t>
@@ -158,28 +158,28 @@
     <t>75,85%</t>
   </si>
   <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>89,48%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>86,61%</t>
   </si>
   <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -191,28 +191,28 @@
     <t>16,35%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>19,1%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -221,25 +221,25 @@
     <t>26,55%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>35,03%</t>
+    <t>42,08%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -248,34 +248,34 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>9,6%</t>
+    <t>10,19%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>53,5%</t>
   </si>
   <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>58,52%</t>
   </si>
   <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -287,34 +287,34 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>48,21%</t>
+    <t>50,14%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>27,68%</t>
+    <t>29,04%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>62,53%</t>
+    <t>61,94%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>55,91%</t>
+    <t>54,48%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -326,7 +326,7 @@
     <t>88,15%</t>
   </si>
   <si>
-    <t>37,47%</t>
+    <t>38,06%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -335,79 +335,79 @@
     <t>72,09%</t>
   </si>
   <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,95%</t>
+    <t>12,19%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -416,34 +416,34 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>3,3%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84138C98-8543-47AC-B651-4BEAEA347DC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E36767-8498-41A6-AC71-C107E95E3616}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P74B2S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S2-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD7126CA-545B-4452-AFFB-64B26674ABAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C0E2C0-F7D0-41D4-AD38-A62A69A98199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8F4B37C5-78CD-436D-9EF2-5FE4C9011A45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F1B3B66F-431D-4D45-BE76-0D7DA83E1161}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="135">
   <si>
     <t>Población según el tipo de pensión que su pareja percibe / respuesta 2 en 2012 (Tasa respuesta: 5,52%)</t>
   </si>
@@ -74,10 +74,10 @@
     <t>14,94%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
   </si>
   <si>
     <t>1,84%</t>
@@ -86,16 +86,16 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>4,23%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>Invalidez o incapacidad permanente</t>
@@ -104,142 +104,139 @@
     <t>7,33%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
+    <t>18,11%</t>
   </si>
   <si>
     <t>8,68%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>5,3%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>Viudedad</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>Jubilacion</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>12,51%</t>
   </si>
   <si>
-    <t>Viudedad</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>Jubilacion</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
+    <t>30,1%</t>
   </si>
   <si>
     <t>9,03%</t>
   </si>
   <si>
-    <t>42,08%</t>
+    <t>35,56%</t>
   </si>
   <si>
     <t>2,9%</t>
@@ -248,34 +245,34 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>11,15%</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>53,5%</t>
   </si>
   <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>58,52%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -287,46 +284,43 @@
     <t>9,18%</t>
   </si>
   <si>
-    <t>50,14%</t>
+    <t>40,39%</t>
   </si>
   <si>
     <t>5,39%</t>
   </si>
   <si>
-    <t>29,04%</t>
+    <t>28,47%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>61,94%</t>
+    <t>62,91%</t>
   </si>
   <si>
     <t>18,73%</t>
   </si>
   <si>
-    <t>54,48%</t>
+    <t>56,49%</t>
   </si>
   <si>
     <t>15,89%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>38,06%</t>
+    <t>37,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -335,79 +329,79 @@
     <t>72,09%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
   </si>
   <si>
     <t>78,71%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
   </si>
   <si>
     <t>13,62%</t>
   </si>
   <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
   </si>
   <si>
     <t>11,84%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>12,19%</t>
+    <t>12,57%</t>
   </si>
   <si>
     <t>0,68%</t>
@@ -416,34 +410,34 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>3,24%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,0%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -858,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E36767-8498-41A6-AC71-C107E95E3616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8854FAD-6494-447E-A315-7A42CDA7A9FE}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,10 +1030,10 @@
         <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -1048,13 +1042,13 @@
         <v>18777</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -1063,19 +1057,19 @@
         <v>23020</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -1084,13 +1078,13 @@
         <v>1086</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1099,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -1114,19 +1108,19 @@
         <v>1086</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="7">
         <v>39</v>
@@ -1135,13 +1129,13 @@
         <v>43896</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>185</v>
@@ -1150,13 +1144,13 @@
         <v>193640</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -1165,13 +1159,13 @@
         <v>237535</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1186,13 +1180,13 @@
         <v>57870</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="7">
         <v>206</v>
@@ -1201,13 +1195,13 @@
         <v>216405</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>258</v>
@@ -1216,18 +1210,18 @@
         <v>274274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1239,13 +1233,13 @@
         <v>3939</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>12</v>
@@ -1254,13 +1248,13 @@
         <v>15428</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
@@ -1269,13 +1263,13 @@
         <v>19367</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1290,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -1305,13 +1299,13 @@
         <v>20529</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -1320,19 +1314,19 @@
         <v>20529</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
@@ -1341,13 +1335,13 @@
         <v>2175</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1356,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -1371,19 +1365,19 @@
         <v>2175</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>15</v>
@@ -1392,13 +1386,13 @@
         <v>17978</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -1407,13 +1401,13 @@
         <v>41370</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>51</v>
@@ -1422,13 +1416,13 @@
         <v>59348</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,13 +1437,13 @@
         <v>24092</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="7">
         <v>65</v>
@@ -1458,13 +1452,13 @@
         <v>77326</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M13" s="7">
         <v>85</v>
@@ -1473,18 +1467,18 @@
         <v>101418</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1496,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1511,13 +1505,13 @@
         <v>1248</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1526,13 +1520,13 @@
         <v>1248</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,13 +1541,13 @@
         <v>1132</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -1562,13 +1556,13 @@
         <v>2548</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -1577,19 +1571,19 @@
         <v>3679</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1598,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1613,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1628,19 +1622,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7">
         <v>5</v>
@@ -1649,13 +1643,13 @@
         <v>8417</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -1664,13 +1658,13 @@
         <v>9802</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -1679,13 +1673,13 @@
         <v>18220</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1700,13 +1694,13 @@
         <v>9549</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -1715,13 +1709,13 @@
         <v>13598</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1730,13 +1724,13 @@
         <v>23147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1747,13 @@
         <v>12584</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>17</v>
@@ -1768,13 +1762,13 @@
         <v>20664</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>29</v>
@@ -1783,13 +1777,13 @@
         <v>33248</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1804,13 +1798,13 @@
         <v>5375</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>36</v>
@@ -1819,13 +1813,13 @@
         <v>41853</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>41</v>
@@ -1834,19 +1828,19 @@
         <v>47228</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="7">
         <v>2</v>
@@ -1855,13 +1849,13 @@
         <v>3260</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1870,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>2</v>
@@ -1885,19 +1879,19 @@
         <v>3260</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7">
         <v>59</v>
@@ -1906,13 +1900,13 @@
         <v>70291</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>228</v>
@@ -1921,13 +1915,13 @@
         <v>244812</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>287</v>
@@ -1936,13 +1930,13 @@
         <v>315103</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1951,13 @@
         <v>91510</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H23" s="7">
         <v>281</v>
@@ -1972,13 +1966,13 @@
         <v>307329</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M23" s="7">
         <v>359</v>
@@ -1987,18 +1981,18 @@
         <v>398839</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
